--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.17159430728564</v>
+        <v>88.43033551522433</v>
       </c>
       <c r="D2" t="n">
-        <v>13.35668831569004</v>
+        <v>11.44407849690255</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.16508607384577</v>
+        <v>90.89397499290376</v>
       </c>
       <c r="D3" t="n">
-        <v>13.07028647034292</v>
+        <v>13.27466227843306</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.01324215692539</v>
+        <v>86.83956509433823</v>
       </c>
       <c r="D4" t="n">
-        <v>11.88853112151433</v>
+        <v>12.74983795306289</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.67210579751654</v>
+        <v>86.21731651802024</v>
       </c>
       <c r="D5" t="n">
-        <v>13.78294698457435</v>
+        <v>12.40151329010959</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.94761939626726</v>
+        <v>84.91608404686565</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45922582611241</v>
+        <v>11.80450209700671</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.000947531653</v>
+        <v>83.30122192044571</v>
       </c>
       <c r="D7" t="n">
-        <v>12.47750464568355</v>
+        <v>13.13114787372008</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>81.95179763330998</v>
+        <v>84.16063314629615</v>
       </c>
       <c r="D8" t="n">
-        <v>11.97396840449437</v>
+        <v>12.25026218868881</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.4022234313418</v>
+        <v>83.4331611321809</v>
       </c>
       <c r="D9" t="n">
-        <v>12.25325072321435</v>
+        <v>11.76676046546475</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.19603007609012</v>
+        <v>81.31110125132115</v>
       </c>
       <c r="D10" t="n">
-        <v>10.32515699858303</v>
+        <v>12.66455576424572</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.60590832678692</v>
+        <v>81.05760900809634</v>
       </c>
       <c r="D11" t="n">
-        <v>11.71544010489563</v>
+        <v>12.26182993557344</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.01347480408722</v>
+        <v>81.77494604895949</v>
       </c>
       <c r="D12" t="n">
-        <v>11.27850868819125</v>
+        <v>11.38693595884921</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.17927894402942</v>
+        <v>78.2433477338857</v>
       </c>
       <c r="D13" t="n">
-        <v>12.92830157366251</v>
+        <v>11.7334696653264</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.36844191509913</v>
+        <v>78.03237061530488</v>
       </c>
       <c r="D14" t="n">
-        <v>11.46701132040582</v>
+        <v>12.03851214276572</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.97210744881657</v>
+        <v>78.57652023241286</v>
       </c>
       <c r="D15" t="n">
-        <v>13.19375594265707</v>
+        <v>11.81812021381567</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.92725874072204</v>
+        <v>77.38204546028027</v>
       </c>
       <c r="D16" t="n">
-        <v>12.15275456946944</v>
+        <v>11.8198983784256</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.91747847812989</v>
+        <v>74.88212300752221</v>
       </c>
       <c r="D17" t="n">
-        <v>13.06780062195224</v>
+        <v>11.26458061896466</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.32765771231472</v>
+        <v>72.27221031797943</v>
       </c>
       <c r="D18" t="n">
-        <v>14.82583988588377</v>
+        <v>10.59834846591448</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.36760358596827</v>
+        <v>71.61267586512834</v>
       </c>
       <c r="D19" t="n">
-        <v>14.09260885860585</v>
+        <v>11.7655835200877</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.97055753588205</v>
+        <v>71.38488928446129</v>
       </c>
       <c r="D20" t="n">
-        <v>12.75509661907963</v>
+        <v>12.31592441015699</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.5250974389177</v>
+        <v>70.18513582147038</v>
       </c>
       <c r="D21" t="n">
-        <v>11.64388894578267</v>
+        <v>11.68481162219865</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.96240562783065</v>
+        <v>69.44569647292798</v>
       </c>
       <c r="D22" t="n">
-        <v>12.02147150751049</v>
+        <v>11.19840278656608</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.69287542964429</v>
+        <v>67.72807108546928</v>
       </c>
       <c r="D23" t="n">
-        <v>13.28693449180357</v>
+        <v>11.40702275206137</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.12592404816999</v>
+        <v>68.08955284490392</v>
       </c>
       <c r="D24" t="n">
-        <v>13.39312734235221</v>
+        <v>12.16404213251448</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.44376781922077</v>
+        <v>68.48182451475668</v>
       </c>
       <c r="D25" t="n">
-        <v>12.98420830488666</v>
+        <v>12.59674506998795</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.42492214651759</v>
+        <v>66.15484332493658</v>
       </c>
       <c r="D26" t="n">
-        <v>11.80773105741868</v>
+        <v>11.61249470249989</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.86030514826649</v>
+        <v>63.69953845600193</v>
       </c>
       <c r="D27" t="n">
-        <v>11.79282934719237</v>
+        <v>12.68262310357301</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.27808264379194</v>
+        <v>64.40882288127563</v>
       </c>
       <c r="D28" t="n">
-        <v>14.50190186090236</v>
+        <v>14.08822578917423</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.33687685671072</v>
+        <v>62.71317428101971</v>
       </c>
       <c r="D29" t="n">
-        <v>11.79566396427229</v>
+        <v>13.36927498615393</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.71680464212773</v>
+        <v>61.99739099727676</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4766637163637</v>
+        <v>13.11139256889075</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.96587388163252</v>
+        <v>60.09561602197731</v>
       </c>
       <c r="D31" t="n">
-        <v>13.17223443307045</v>
+        <v>12.0699383897026</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.70508332442294</v>
+        <v>59.84477323407961</v>
       </c>
       <c r="D32" t="n">
-        <v>12.80748162727448</v>
+        <v>11.08494035672902</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.72605498877034</v>
+        <v>59.61329983645399</v>
       </c>
       <c r="D33" t="n">
-        <v>12.40736466750013</v>
+        <v>13.3708907830747</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.66201605757482</v>
+        <v>58.10319596791877</v>
       </c>
       <c r="D34" t="n">
-        <v>12.75769831251677</v>
+        <v>12.82119255608804</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.31988792297584</v>
+        <v>58.76477002375177</v>
       </c>
       <c r="D35" t="n">
-        <v>12.16394353383297</v>
+        <v>13.17464256495236</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.89397540661882</v>
+        <v>55.43385233179701</v>
       </c>
       <c r="D36" t="n">
-        <v>11.34824246204623</v>
+        <v>12.79910140172085</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.02446607791798</v>
+        <v>55.31927044156967</v>
       </c>
       <c r="D37" t="n">
-        <v>11.70593523362557</v>
+        <v>12.4887551725449</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.53446277091438</v>
+        <v>54.06998879220177</v>
       </c>
       <c r="D38" t="n">
-        <v>13.27454727602391</v>
+        <v>10.95469878772456</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.02487881274435</v>
+        <v>52.70277016360492</v>
       </c>
       <c r="D39" t="n">
-        <v>12.00741865764548</v>
+        <v>12.44997454142865</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.20341347843556</v>
+        <v>53.15876738508671</v>
       </c>
       <c r="D40" t="n">
-        <v>11.43958672278312</v>
+        <v>12.23453180104555</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.92558780325067</v>
+        <v>52.25848722709128</v>
       </c>
       <c r="D41" t="n">
-        <v>13.66632527080462</v>
+        <v>11.6254522890566</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.95866239447403</v>
+        <v>49.63837401181254</v>
       </c>
       <c r="D42" t="n">
-        <v>13.27825678980132</v>
+        <v>12.06044551770674</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.06725283016928</v>
+        <v>48.93777655153501</v>
       </c>
       <c r="D43" t="n">
-        <v>12.33687131908448</v>
+        <v>12.62523830087012</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.75968267321703</v>
+        <v>48.41268957385277</v>
       </c>
       <c r="D44" t="n">
-        <v>14.04724538318453</v>
+        <v>12.30831420374517</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.8834267528641</v>
+        <v>46.63112452455555</v>
       </c>
       <c r="D45" t="n">
-        <v>12.15594307324806</v>
+        <v>12.31473945590962</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.69420579890354</v>
+        <v>46.91895977941542</v>
       </c>
       <c r="D46" t="n">
-        <v>11.56909069754033</v>
+        <v>13.94552812328581</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.65877379136612</v>
+        <v>44.71790125334835</v>
       </c>
       <c r="D47" t="n">
-        <v>12.4671317065611</v>
+        <v>12.10132584224901</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.02845320191354</v>
+        <v>44.14327730784409</v>
       </c>
       <c r="D48" t="n">
-        <v>12.19983149655295</v>
+        <v>14.17990146250399</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.93455386056677</v>
+        <v>42.48735013233595</v>
       </c>
       <c r="D49" t="n">
-        <v>12.71076222164375</v>
+        <v>11.89679300151319</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.62497116771343</v>
+        <v>41.13677592211867</v>
       </c>
       <c r="D50" t="n">
-        <v>12.88349999014389</v>
+        <v>10.96795065526653</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.90153015289529</v>
+        <v>39.82334362324761</v>
       </c>
       <c r="D51" t="n">
-        <v>13.27049359251554</v>
+        <v>11.65878131825095</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.62681811846035</v>
+        <v>39.54816202602843</v>
       </c>
       <c r="D52" t="n">
-        <v>13.56701322246832</v>
+        <v>13.03968681779526</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.03599650247865</v>
+        <v>39.48459445089644</v>
       </c>
       <c r="D53" t="n">
-        <v>13.83663437738138</v>
+        <v>12.51715759792163</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.67354879001189</v>
+        <v>37.0343556721999</v>
       </c>
       <c r="D54" t="n">
-        <v>12.32870260549969</v>
+        <v>12.18943688363219</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.53714499434878</v>
+        <v>36.98069981723174</v>
       </c>
       <c r="D55" t="n">
-        <v>13.69880856528141</v>
+        <v>12.89921079851254</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.57643529862546</v>
+        <v>35.92203008893375</v>
       </c>
       <c r="D56" t="n">
-        <v>11.5962479848624</v>
+        <v>12.04039647146237</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.43712727091082</v>
+        <v>36.90651295881983</v>
       </c>
       <c r="D57" t="n">
-        <v>10.28769233038543</v>
+        <v>12.69555270015721</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.78319518170331</v>
+        <v>34.79448769123465</v>
       </c>
       <c r="D58" t="n">
-        <v>12.0079352610367</v>
+        <v>12.98526917046225</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.58442075809515</v>
+        <v>32.0646744773034</v>
       </c>
       <c r="D59" t="n">
-        <v>11.81421873978709</v>
+        <v>13.710866834854</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.22886260775482</v>
+        <v>31.98576002162504</v>
       </c>
       <c r="D60" t="n">
-        <v>13.48752795977099</v>
+        <v>13.33875137212814</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.49175472846148</v>
+        <v>32.73942464561502</v>
       </c>
       <c r="D61" t="n">
-        <v>12.85456129224841</v>
+        <v>13.68002476652324</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.16907667866068</v>
+        <v>30.16043663293288</v>
       </c>
       <c r="D62" t="n">
-        <v>13.27740121430375</v>
+        <v>13.14142932884712</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.45124949233309</v>
+        <v>30.92208909330703</v>
       </c>
       <c r="D63" t="n">
-        <v>13.50871017606487</v>
+        <v>11.37356824489603</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.14892050390583</v>
+        <v>27.01251563841007</v>
       </c>
       <c r="D64" t="n">
-        <v>13.33277396506073</v>
+        <v>12.52193281837449</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.20735723358965</v>
+        <v>25.88389402343783</v>
       </c>
       <c r="D65" t="n">
-        <v>12.40752907758039</v>
+        <v>14.25036290465042</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.60337722568775</v>
+        <v>27.51598939878707</v>
       </c>
       <c r="D66" t="n">
-        <v>13.55267073369906</v>
+        <v>12.85581273188056</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.99476477947706</v>
+        <v>24.94985217687713</v>
       </c>
       <c r="D67" t="n">
-        <v>13.79363583502787</v>
+        <v>12.33433561465599</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.57247627840203</v>
+        <v>21.24469496361176</v>
       </c>
       <c r="D68" t="n">
-        <v>14.52186390816179</v>
+        <v>12.01630365447701</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.44789732847626</v>
+        <v>22.49746138201018</v>
       </c>
       <c r="D69" t="n">
-        <v>13.51462893692423</v>
+        <v>13.57503791179126</v>
       </c>
     </row>
   </sheetData>
